--- a/bin/Debug/net8.0/Template/果肉杀菌在线混合记录表模板_夜班.xlsx
+++ b/bin/Debug/net8.0/Template/果肉杀菌在线混合记录表模板_夜班.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cwq\MyCode\Cola_ AsepticLine\Cola\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1109F60B-91A0-4B15-A4D7-9ADF7C08F710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F586131C-467A-42CE-BDF1-F34D6660C321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2265" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="果肉杀菌在线混合记录表" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="报警点位" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>果肉杀菌在线混合记录表</t>
   </si>
@@ -46,144 +46,16 @@
   </si>
   <si>
     <t>单位</t>
-  </si>
-  <si>
-    <t>07:00</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>HMI_STEP_NUM</t>
-  </si>
-  <si>
-    <t>ProductName</t>
-  </si>
-  <si>
-    <t>生产温度点TEM01(℃)</t>
-  </si>
-  <si>
-    <t>97.5-99.5</t>
-  </si>
-  <si>
-    <t>℃</t>
-  </si>
-  <si>
-    <t>温控温度TEM02(℃)</t>
-  </si>
-  <si>
-    <t>冷却温度TEM01(℃)</t>
-  </si>
-  <si>
-    <t>&lt;30</t>
-  </si>
-  <si>
-    <t>放气罐液位LEVEL02(%)</t>
-  </si>
-  <si>
-    <t>10-85</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>除气罐压力UATMP01(bar)</t>
-  </si>
-  <si>
-    <t>Bar</t>
-  </si>
-  <si>
-    <t>产品流量UATMP01(t/h)</t>
-  </si>
-  <si>
-    <t>2200-5000</t>
-  </si>
-  <si>
-    <t>t/h</t>
-  </si>
-  <si>
-    <t>产品压力UATMP01(bar)</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>产品与冷水压差UATMP03(bar)</t>
-  </si>
-  <si>
-    <t>产品与热水压差UATMP03(bar)</t>
-  </si>
-  <si>
-    <t>杀菌时间</t>
-  </si>
-  <si>
-    <t>Sec</t>
-  </si>
-  <si>
-    <t>蒸汽工艺编号集</t>
   </si>
   <si>
     <t>项目说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>果肉UHT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>果粒UHT步骤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>果粒UHT配方</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>果肉无菌罐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>班次：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>白班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>设备名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -197,6 +69,18 @@
   </si>
   <si>
     <t>夜班</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点检项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -280,25 +164,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -308,10 +189,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -332,9 +213,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -372,7 +253,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -478,7 +359,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -620,7 +501,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -628,9 +509,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -645,61 +526,60 @@
     <col min="7" max="19" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="9"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="8"/>
       <c r="O2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -707,50 +587,50 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="4">
         <v>0.83333333333333304</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="4">
         <v>0.874999999999999</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="4">
         <v>0.91666666666666596</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="4">
         <v>0.95833333333333304</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="4">
         <v>0</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="4">
         <v>1.0416666666666601</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="4">
         <v>1.0833333333333299</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="4">
         <v>1.125</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="4">
         <v>1.1666666666666601</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="4">
         <v>1.2083333333333299</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="4">
         <v>1.25</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -770,7 +650,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -790,7 +670,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -810,7 +690,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -830,7 +710,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -850,7 +730,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -870,7 +750,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -890,7 +770,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -910,7 +790,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -930,7 +810,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -950,7 +830,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -970,7 +850,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -990,7 +870,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1024,485 +904,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DF85D5-2D62-40EC-AFC2-24765FBE3866}">
-  <dimension ref="A1:S16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BD95CD-A479-4C33-9906-ABA4DCEC9A48}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="22.25" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="19" width="12" customWidth="1"/>
+    <col min="2" max="2" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8">
-        <v>45715</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:N2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A4:A9"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/bin/Debug/net8.0/Template/果肉杀菌在线混合记录表模板_夜班.xlsx
+++ b/bin/Debug/net8.0/Template/果肉杀菌在线混合记录表模板_夜班.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cwq\MyCode\Cola_ AsepticLine\Cola\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F586131C-467A-42CE-BDF1-F34D6660C321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F15D6C3-68C8-4AFC-89EB-52CE393BD642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,6 +180,9 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -191,9 +194,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,52 +527,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="9"/>
       <c r="O2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -905,10 +905,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BD95CD-A479-4C33-9906-ABA4DCEC9A48}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -917,18 +917,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
